--- a/results.xlsx
+++ b/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsofteur-my.sharepoint.com/personal/tokubica_microsoft_com/Documents/git/csi-vhd/drmaxStoragePerf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsofteur-my.sharepoint.com/personal/tokubica_microsoft_com/Documents/git/azure-remote-fs-perf-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{E8478951-AED1-46E0-9CFB-1C736B01351C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A05306FC-4EB6-4753-B590-CEE4C31883BC}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{E8478951-AED1-46E0-9CFB-1C736B01351C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40BA2587-0DD6-4DBF-9587-CBB1C8D57D80}"/>
   <bookViews>
-    <workbookView xWindow="-25040" yWindow="-80" windowWidth="25120" windowHeight="16800" xr2:uid="{F0820323-105F-4608-BB9D-11EDC097B4D6}"/>
+    <workbookView xWindow="-25070" yWindow="-110" windowWidth="25180" windowHeight="16860" xr2:uid="{F0820323-105F-4608-BB9D-11EDC097B4D6}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -138,13 +138,21 @@
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -174,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -182,11 +190,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -201,6 +218,7 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -517,8 +535,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65962FBF-991A-417B-A903-C9E2A0694E92}">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,59 +548,59 @@
     <col min="16" max="16" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="14" t="s">
         <v>14</v>
       </c>
     </row>
@@ -593,42 +612,42 @@
         <v>238</v>
       </c>
       <c r="C2" s="8">
-        <f>Q2/B2</f>
+        <f t="shared" ref="C2:C9" si="0">Q2/B2</f>
         <v>1.0084033613445378</v>
       </c>
       <c r="D2" s="7">
         <v>200</v>
       </c>
       <c r="E2" s="4">
-        <f>Q2/D2</f>
+        <f t="shared" ref="E2:E9" si="1">Q2/D2</f>
         <v>1.2</v>
       </c>
       <c r="F2" s="9">
         <v>22</v>
       </c>
       <c r="G2" s="10">
-        <f>Q2*F2</f>
+        <f t="shared" ref="G2:G9" si="2">Q2*F2</f>
         <v>5280</v>
       </c>
       <c r="H2" s="7">
         <v>3.2</v>
       </c>
       <c r="I2" s="8">
-        <f>Q2*H2</f>
+        <f t="shared" ref="I2:I9" si="3">Q2*H2</f>
         <v>768</v>
       </c>
       <c r="J2" s="9">
         <v>1000</v>
       </c>
       <c r="K2" s="10">
-        <f>Q2/J2</f>
+        <f t="shared" ref="K2:K9" si="4">Q2/J2</f>
         <v>0.24</v>
       </c>
       <c r="L2" s="9">
         <v>810</v>
       </c>
       <c r="M2" s="2">
-        <f>Q2/L2</f>
+        <f t="shared" ref="M2:M9" si="5">Q2/L2</f>
         <v>0.29629629629629628</v>
       </c>
       <c r="N2" s="11">
@@ -655,42 +674,42 @@
         <v>170</v>
       </c>
       <c r="C3" s="10">
-        <f>Q3/B3</f>
+        <f t="shared" si="0"/>
         <v>4.5176470588235293</v>
       </c>
       <c r="D3" s="3">
         <v>342</v>
       </c>
       <c r="E3" s="8">
-        <f>Q3/D3</f>
+        <f t="shared" si="1"/>
         <v>2.2456140350877192</v>
       </c>
       <c r="F3" s="7">
         <v>3.3</v>
       </c>
       <c r="G3" s="8">
-        <f>Q3*F3</f>
+        <f t="shared" si="2"/>
         <v>2534.3999999999996</v>
       </c>
       <c r="H3" s="7">
         <v>3.2</v>
       </c>
       <c r="I3" s="8">
-        <f>Q3*H3</f>
+        <f t="shared" si="3"/>
         <v>2457.6000000000004</v>
       </c>
       <c r="J3" s="7">
         <v>4400</v>
       </c>
       <c r="K3" s="10">
-        <f>Q3/J3</f>
+        <f t="shared" si="4"/>
         <v>0.17454545454545456</v>
       </c>
       <c r="L3" s="7">
         <v>4400</v>
       </c>
       <c r="M3" s="8">
-        <f>Q3/L3</f>
+        <f t="shared" si="5"/>
         <v>0.17454545454545456</v>
       </c>
       <c r="N3" s="11">
@@ -717,42 +736,42 @@
         <v>49</v>
       </c>
       <c r="C4" s="8">
-        <f>Q4/B4</f>
+        <f t="shared" si="0"/>
         <v>1.5918367346938775</v>
       </c>
       <c r="D4" s="7">
         <v>180</v>
       </c>
       <c r="E4" s="4">
-        <f>Q4/D4</f>
+        <f t="shared" si="1"/>
         <v>0.43333333333333335</v>
       </c>
       <c r="F4" s="9">
         <v>37</v>
       </c>
       <c r="G4" s="8">
-        <f>Q4*F4</f>
+        <f t="shared" si="2"/>
         <v>2886</v>
       </c>
       <c r="H4" s="9">
         <v>112</v>
       </c>
       <c r="I4" s="10">
-        <f>Q4*H4</f>
+        <f t="shared" si="3"/>
         <v>8736</v>
       </c>
       <c r="J4" s="7">
         <v>6600</v>
       </c>
       <c r="K4" s="4">
-        <f>Q4/J4</f>
+        <f t="shared" si="4"/>
         <v>1.1818181818181818E-2</v>
       </c>
       <c r="L4" s="9">
         <v>600</v>
       </c>
       <c r="M4" s="8">
-        <f>Q4/L4</f>
+        <f t="shared" si="5"/>
         <v>0.13</v>
       </c>
       <c r="N4" s="11">
@@ -779,42 +798,42 @@
         <v>82</v>
       </c>
       <c r="C5" s="10">
-        <f>Q5/B5</f>
+        <f t="shared" si="0"/>
         <v>9.5121951219512191</v>
       </c>
       <c r="D5" s="3">
         <v>380</v>
       </c>
       <c r="E5" s="8">
-        <f>Q5/D5</f>
+        <f t="shared" si="1"/>
         <v>2.0526315789473686</v>
       </c>
       <c r="F5" s="9">
         <v>6.5</v>
       </c>
       <c r="G5" s="10">
-        <f>Q5*F5</f>
+        <f t="shared" si="2"/>
         <v>5070</v>
       </c>
       <c r="H5" s="9">
         <v>78</v>
       </c>
       <c r="I5" s="10">
-        <f>Q5*H5</f>
+        <f t="shared" si="3"/>
         <v>60840</v>
       </c>
       <c r="J5" s="7">
         <v>6600</v>
       </c>
       <c r="K5" s="10">
-        <f>Q5/J5</f>
+        <f t="shared" si="4"/>
         <v>0.11818181818181818</v>
       </c>
       <c r="L5" s="9">
         <v>1400</v>
       </c>
       <c r="M5" s="10">
-        <f>Q5/L5</f>
+        <f t="shared" si="5"/>
         <v>0.55714285714285716</v>
       </c>
       <c r="N5" s="11">
@@ -841,42 +860,42 @@
         <v>2933</v>
       </c>
       <c r="C6" s="4">
-        <f>Q6/B6</f>
+        <f t="shared" si="0"/>
         <v>0.20593249232867372</v>
       </c>
       <c r="D6" s="9">
         <v>66</v>
       </c>
       <c r="E6" s="10">
-        <f>Q6/D6</f>
+        <f t="shared" si="1"/>
         <v>9.1515151515151523</v>
       </c>
       <c r="F6" s="3">
         <v>0.4</v>
       </c>
       <c r="G6" s="4">
-        <f>Q6*F6</f>
+        <f t="shared" si="2"/>
         <v>241.60000000000002</v>
       </c>
       <c r="H6" s="3">
         <v>0.4</v>
       </c>
       <c r="I6" s="4">
-        <f>Q6*H6</f>
+        <f t="shared" si="3"/>
         <v>241.60000000000002</v>
       </c>
       <c r="J6" s="7">
         <v>8200</v>
       </c>
       <c r="K6" s="8">
-        <f>Q6/J6</f>
+        <f t="shared" si="4"/>
         <v>7.365853658536585E-2</v>
       </c>
       <c r="L6" s="7">
         <v>8200</v>
       </c>
       <c r="M6" s="8">
-        <f>Q6/L6</f>
+        <f t="shared" si="5"/>
         <v>7.365853658536585E-2</v>
       </c>
       <c r="N6" s="5">
@@ -903,42 +922,42 @@
         <v>3009</v>
       </c>
       <c r="C7" s="4">
-        <f>Q7/B7</f>
+        <f t="shared" si="0"/>
         <v>0.40046527085410433</v>
       </c>
       <c r="D7" s="7">
         <v>268</v>
       </c>
       <c r="E7" s="10">
-        <f>Q7/D7</f>
+        <f t="shared" si="1"/>
         <v>4.4962686567164178</v>
       </c>
       <c r="F7" s="3">
         <v>0.4</v>
       </c>
       <c r="G7" s="4">
-        <f>Q7*F7</f>
+        <f t="shared" si="2"/>
         <v>482</v>
       </c>
       <c r="H7" s="3">
         <v>0.4</v>
       </c>
       <c r="I7" s="4">
-        <f>Q7*H7</f>
+        <f t="shared" si="3"/>
         <v>482</v>
       </c>
       <c r="J7" s="3">
         <v>32500</v>
       </c>
       <c r="K7" s="8">
-        <f>Q7/J7</f>
+        <f t="shared" si="4"/>
         <v>3.7076923076923077E-2</v>
       </c>
       <c r="L7" s="3">
         <v>32800</v>
       </c>
       <c r="M7" s="4">
-        <f>Q7/L7</f>
+        <f t="shared" si="5"/>
         <v>3.6737804878048778E-2</v>
       </c>
       <c r="N7" s="5">
@@ -965,42 +984,42 @@
         <v>2946</v>
       </c>
       <c r="C8" s="4">
-        <f>Q8/B8</f>
+        <f t="shared" si="0"/>
         <v>0.54582484725050917</v>
       </c>
       <c r="D8" s="3">
         <v>511</v>
       </c>
       <c r="E8" s="8">
-        <f>Q8/D8</f>
+        <f t="shared" si="1"/>
         <v>3.1467710371819959</v>
       </c>
       <c r="F8" s="3">
         <v>0.4</v>
       </c>
       <c r="G8" s="4">
-        <f>Q8*F8</f>
+        <f t="shared" si="2"/>
         <v>643.20000000000005</v>
       </c>
       <c r="H8" s="3">
         <v>0.4</v>
       </c>
       <c r="I8" s="4">
-        <f>Q8*H8</f>
+        <f t="shared" si="3"/>
         <v>643.20000000000005</v>
       </c>
       <c r="J8" s="3">
         <v>30500</v>
       </c>
       <c r="K8" s="8">
-        <f>Q8/J8</f>
+        <f t="shared" si="4"/>
         <v>5.2721311475409836E-2</v>
       </c>
       <c r="L8" s="3">
         <v>42800</v>
       </c>
       <c r="M8" s="4">
-        <f>Q8/L8</f>
+        <f t="shared" si="5"/>
         <v>3.7570093457943925E-2</v>
       </c>
       <c r="N8" s="5">
@@ -1026,43 +1045,43 @@
       <c r="B9" s="7">
         <v>164</v>
       </c>
-      <c r="C9" s="8">
-        <f>Q9/B9</f>
+      <c r="C9" s="4">
+        <f t="shared" si="0"/>
         <v>0.12195121951219512</v>
       </c>
       <c r="D9" s="7">
         <v>290</v>
       </c>
       <c r="E9" s="4">
-        <f>Q9/D9</f>
+        <f t="shared" si="1"/>
         <v>6.8965517241379309E-2</v>
       </c>
       <c r="F9" s="7">
         <v>3.3</v>
       </c>
       <c r="G9" s="4">
-        <f>Q9*F9</f>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="H9" s="7">
         <v>3.2</v>
       </c>
       <c r="I9" s="4">
-        <f>Q9*H9</f>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="J9">
         <v>500</v>
       </c>
       <c r="K9" s="8">
-        <f>Q9/J9</f>
+        <f t="shared" si="4"/>
         <v>0.04</v>
       </c>
       <c r="L9" s="9">
         <v>500</v>
       </c>
       <c r="M9" s="4">
-        <f>Q9/L9</f>
+        <f t="shared" si="5"/>
         <v>0.04</v>
       </c>
       <c r="N9" s="11">
